--- a/biology/Médecine/Rétinographe/Rétinographe.xlsx
+++ b/biology/Médecine/Rétinographe/Rétinographe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tinographe</t>
+          <t>Rétinographe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétinographe est l’appellation française de la Fundus camera des Anglo-saxons ; cet appareil sert à photographier le fond d'œil, soit tout ce qui est visible en arrière de l'iris et du cristallin. On peut y observer la rétine, la papille optique, la macula, l'ensemble portant le nom de pôle postérieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9tinographe</t>
+          <t>Rétinographe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétinographe est utilisé pour surveiller d'éventuelles modifications du fond d'œil, pour transmettre des images à un ophtalmologiste distant ou réaliser des assemblages couvrant une grande surface de la rétine.
-Il permet, entre autres, d'évaluer et de surveiller les symptômes de décollement de la rétine, de rétinopathies diabétique[1], d'affections vasculaires ou inflammatoire et diverses maladies oculaires telles que le glaucome.
+Il permet, entre autres, d'évaluer et de surveiller les symptômes de décollement de la rétine, de rétinopathies diabétique, d'affections vasculaires ou inflammatoire et diverses maladies oculaires telles que le glaucome.
 </t>
         </is>
       </c>
